--- a/Configs/NPCAvoidDialogue.xlsx
+++ b/Configs/NPCAvoidDialogue.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F545081-EEFB-410B-BFB5-9A3C9006161F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B618E-FD35-4D48-AB4C-00269969D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13388" yWindow="3308" windowWidth="16702" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="428" yWindow="1275" windowWidth="19192" windowHeight="10792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,12 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>match1MailID</t>
-  </si>
-  <si>
-    <t>match2MailID</t>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,14 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>规避效果ID1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规避效果ID2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>avoidID1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,14 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未规避效果1文本ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未规避效果2文本ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我要避开效果21001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,15 +109,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我要避开效果21001和22001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都没规避文本ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allMatchMailID</t>
+    <t>禁忌效果ID1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁忌效果ID2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁忌属性数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avoidAttributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要避开效果23003和24003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,6 +205,479 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ID</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>效果名</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>需求属性</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>需求值</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>是否正面</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>id</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>name</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>attributes</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>isPositive</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>int</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>string</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>int</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>int</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>bool</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>21001</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>属性一负面1</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>20</v>
+          </cell>
+          <cell r="E4" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>21101</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>属性一正面1</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5">
+            <v>20</v>
+          </cell>
+          <cell r="E5" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>21002</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>属性一负面2</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+          <cell r="D6">
+            <v>50</v>
+          </cell>
+          <cell r="E6" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>21102</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>属性一正面2</v>
+          </cell>
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7">
+            <v>50</v>
+          </cell>
+          <cell r="E7" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>21003</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>属性一负面3</v>
+          </cell>
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>70</v>
+          </cell>
+          <cell r="E8" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>21103</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>属性一正面3</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>70</v>
+          </cell>
+          <cell r="E9" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>22001</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>属性二负面1</v>
+          </cell>
+          <cell r="C10">
+            <v>2</v>
+          </cell>
+          <cell r="D10">
+            <v>30</v>
+          </cell>
+          <cell r="E10" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>22101</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>属性二正面1</v>
+          </cell>
+          <cell r="C11">
+            <v>2</v>
+          </cell>
+          <cell r="D11">
+            <v>30</v>
+          </cell>
+          <cell r="E11" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>22002</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>属性二负面2</v>
+          </cell>
+          <cell r="C12">
+            <v>2</v>
+          </cell>
+          <cell r="D12">
+            <v>60</v>
+          </cell>
+          <cell r="E12" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>22102</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>属性二正面2</v>
+          </cell>
+          <cell r="C13">
+            <v>2</v>
+          </cell>
+          <cell r="D13">
+            <v>60</v>
+          </cell>
+          <cell r="E13" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>22003</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>属性二负面3</v>
+          </cell>
+          <cell r="C14">
+            <v>2</v>
+          </cell>
+          <cell r="D14">
+            <v>90</v>
+          </cell>
+          <cell r="E14" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>22103</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>属性二正面3</v>
+          </cell>
+          <cell r="C15">
+            <v>2</v>
+          </cell>
+          <cell r="D15">
+            <v>90</v>
+          </cell>
+          <cell r="E15" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>23001</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>属性三负面1</v>
+          </cell>
+          <cell r="C16">
+            <v>3</v>
+          </cell>
+          <cell r="D16">
+            <v>10</v>
+          </cell>
+          <cell r="E16" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>23101</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>属性三正面1</v>
+          </cell>
+          <cell r="C17">
+            <v>3</v>
+          </cell>
+          <cell r="D17">
+            <v>10</v>
+          </cell>
+          <cell r="E17" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>23002</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>属性三负面2</v>
+          </cell>
+          <cell r="C18">
+            <v>3</v>
+          </cell>
+          <cell r="D18">
+            <v>35</v>
+          </cell>
+          <cell r="E18" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>23102</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>属性三正面2</v>
+          </cell>
+          <cell r="C19">
+            <v>3</v>
+          </cell>
+          <cell r="D19">
+            <v>35</v>
+          </cell>
+          <cell r="E19" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>23003</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>属性三负面3</v>
+          </cell>
+          <cell r="C20">
+            <v>3</v>
+          </cell>
+          <cell r="D20">
+            <v>75</v>
+          </cell>
+          <cell r="E20" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>23103</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>属性三正面3</v>
+          </cell>
+          <cell r="C21">
+            <v>3</v>
+          </cell>
+          <cell r="D21">
+            <v>75</v>
+          </cell>
+          <cell r="E21" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>24001</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>属性四负面1</v>
+          </cell>
+          <cell r="C22">
+            <v>4</v>
+          </cell>
+          <cell r="D22">
+            <v>45</v>
+          </cell>
+          <cell r="E22" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>24101</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>属性四正面1</v>
+          </cell>
+          <cell r="C23">
+            <v>4</v>
+          </cell>
+          <cell r="D23">
+            <v>45</v>
+          </cell>
+          <cell r="E23" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>24002</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>属性四负面2</v>
+          </cell>
+          <cell r="C24">
+            <v>4</v>
+          </cell>
+          <cell r="D24">
+            <v>65</v>
+          </cell>
+          <cell r="E24" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>24102</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>属性四正面2</v>
+          </cell>
+          <cell r="C25">
+            <v>4</v>
+          </cell>
+          <cell r="D25">
+            <v>65</v>
+          </cell>
+          <cell r="E25" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>24003</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>属性四负面3</v>
+          </cell>
+          <cell r="C26">
+            <v>4</v>
+          </cell>
+          <cell r="D26">
+            <v>85</v>
+          </cell>
+          <cell r="E26" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>24103</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>属性四正面3</v>
+          </cell>
+          <cell r="C27">
+            <v>4</v>
+          </cell>
+          <cell r="D27">
+            <v>85</v>
+          </cell>
+          <cell r="E27" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,22 +943,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.06640625" customWidth="1"/>
     <col min="2" max="2" width="28.06640625" customWidth="1"/>
-    <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" customWidth="1"/>
-    <col min="6" max="7" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="16.796875" customWidth="1"/>
+    <col min="5" max="5" width="16.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,22 +966,16 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -523,50 +983,38 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>41001</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>21101</v>
@@ -574,22 +1022,17 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>52001</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="E4" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(C4=0,"",(VLOOKUP(C4,[1]Sheet1!$A:$E,3,FALSE))),IF(D4=0,"",(VLOOKUP(D4,[1]Sheet1!$A:$E,3,FALSE))))</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>41002</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>22102</v>
@@ -597,37 +1040,27 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>52002</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="E5" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(C5=0,"",(VLOOKUP(C5,[1]Sheet1!$A:$E,3,FALSE))),IF(D5=0,"",(VLOOKUP(D5,[1]Sheet1!$A:$E,3,FALSE))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>42001</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>21101</v>
+        <v>23003</v>
       </c>
       <c r="D6">
-        <v>22101</v>
-      </c>
-      <c r="E6">
-        <v>52005</v>
-      </c>
-      <c r="F6">
-        <v>52003</v>
-      </c>
-      <c r="G6">
-        <v>52004</v>
+        <v>24003</v>
+      </c>
+      <c r="E6" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(C6=0,"",(VLOOKUP(C6,[1]Sheet1!$A:$E,3,FALSE))),IF(D6=0,"",(VLOOKUP(D6,[1]Sheet1!$A:$E,3,FALSE))))</f>
+        <v>3,4</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/NPCAvoidDialogue.xlsx
+++ b/Configs/NPCAvoidDialogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0119F46B-D24E-43AB-979E-DE243C0B08A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A9B9E-890B-43F0-A9FE-84CDD78E5E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="600" windowWidth="16583" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="16583" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,148 +154,148 @@
     <t>4,3</t>
   </si>
   <si>
-    <t>但千万别让我&lt;color=FF8730&gt;头晕目眩&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=BD69FF&gt;心悸体虚&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF57A0&gt;咽肿喉痛&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=2E89FF&gt;风寒流涕&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF8730&gt;四肢无力&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=BD69FF&gt;听力下降&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF57A0&gt;盗汗口干&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=2E89FF&gt;口苦嘴臭&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF8730&gt;失眠不寐&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=BD69FF&gt;抑郁烦闷&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF57A0&gt;暴躁易怒&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=2E89FF&gt;头疼欲裂&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF8730&gt;头晕目眩&lt;/color&gt;或者&lt;color=BD69FF&gt;听力下降&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=BD69FF&gt;心悸体虚&lt;/color&gt;或者&lt;color=FF57A0&gt;盗汗口干&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF57A0&gt;咽肿喉痛&lt;/color&gt;或者&lt;color=2E89FF&gt;口苦嘴臭&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=2E89FF&gt;风寒流涕&lt;/color&gt;或者&lt;color=FF8730&gt;四肢无力&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF8730&gt;四肢无力&lt;/color&gt;或者&lt;color=BD69FF&gt;抑郁烦闷&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=BD69FF&gt;听力下降&lt;/color&gt;或者&lt;color=FF57A0&gt;暴躁易怒&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF57A0&gt;盗汗口干&lt;/color&gt;或者&lt;color=2E89FF&gt;头疼欲裂&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=2E89FF&gt;口苦嘴臭&lt;/color&gt;或者&lt;color=FF8730&gt;失眠不寐&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF8730&gt;失眠不寐&lt;/color&gt;或者&lt;color=BD69FF&gt;心悸体虚&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=BD69FF&gt;抑郁烦闷&lt;/color&gt;或者&lt;color=FF57A0&gt;咽肿喉痛&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF57A0&gt;暴躁易怒&lt;/color&gt;或者&lt;color=2E89FF&gt;风寒流涕&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=2E89FF&gt;头疼欲裂&lt;/color&gt;或者&lt;color=FF8730&gt;头晕目眩&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF8730&gt;头晕目眩&lt;/color&gt;或者&lt;color=FF57A0&gt;暴躁易怒&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=BD69FF&gt;心悸体虚&lt;/color&gt;或者&lt;color=2E89FF&gt;头疼欲裂&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF57A0&gt;咽肿喉痛&lt;/color&gt;或者&lt;color=FF8730&gt;失眠不寐&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=2E89FF&gt;风寒流涕&lt;/color&gt;或者&lt;color=BD69FF&gt;抑郁烦闷&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF8730&gt;四肢无力&lt;/color&gt;或者&lt;color=FF57A0&gt;咽肿喉痛&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=BD69FF&gt;听力下降&lt;/color&gt;或者&lt;color=2E89FF&gt;风寒流涕&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF57A0&gt;盗汗口干&lt;/color&gt;或者&lt;color=FF8730&gt;头晕目眩&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=2E89FF&gt;口苦嘴臭&lt;/color&gt;或者&lt;color=BD69FF&gt;心悸体虚&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF8730&gt;失眠不寐&lt;/color&gt;或者&lt;color=FF57A0&gt;盗汗口干&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=BD69FF&gt;抑郁烦闷&lt;/color&gt;或者&lt;color=2E89FF&gt;口苦嘴臭&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF57A0&gt;暴躁易怒&lt;/color&gt;或者&lt;color=FF8730&gt;四肢无力&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=2E89FF&gt;头疼欲裂&lt;/color&gt;或者&lt;color=BD69FF&gt;听力下降&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF8730&gt;头晕目眩&lt;/color&gt;或者&lt;color=2E89FF&gt;风寒流涕&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=BD69FF&gt;心悸体虚&lt;/color&gt;或者&lt;color=FF8730&gt;头晕目眩&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF57A0&gt;咽肿喉痛&lt;/color&gt;或者&lt;color=BD69FF&gt;心悸体虚&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=2E89FF&gt;风寒流涕&lt;/color&gt;或者&lt;color=FF57A0&gt;咽肿喉痛&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF8730&gt;四肢无力&lt;/color&gt;或者&lt;color=2E89FF&gt;口苦嘴臭&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=BD69FF&gt;听力下降&lt;/color&gt;或者&lt;color=FF8730&gt;四肢无力&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF57A0&gt;盗汗口干&lt;/color&gt;或者&lt;color=BD69FF&gt;听力下降&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=2E89FF&gt;口苦嘴臭&lt;/color&gt;或者&lt;color=FF57A0&gt;盗汗口干&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF8730&gt;失眠不寐&lt;/color&gt;或者&lt;color=2E89FF&gt;头疼欲裂&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=BD69FF&gt;抑郁烦闷&lt;/color&gt;或者&lt;color=FF8730&gt;失眠不寐&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=FF57A0&gt;暴躁易怒&lt;/color&gt;或者&lt;color=BD69FF&gt;抑郁烦闷&lt;/color&gt;，不然可得耽误事儿了</t>
-  </si>
-  <si>
-    <t>但千万别让我&lt;color=2E89FF&gt;头疼欲裂&lt;/color&gt;或者&lt;color=FF57A0&gt;暴躁易怒&lt;/color&gt;，不然可得耽误事儿了</t>
+    <t>但千万别让我&lt;color=#FF8730&gt;头晕目眩&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#BD69FF&gt;心悸体虚&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF57A0&gt;咽肿喉痛&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#2E89FF&gt;风寒流涕&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF8730&gt;四肢无力&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#BD69FF&gt;听力下降&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF57A0&gt;盗汗口干&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#2E89FF&gt;口苦嘴臭&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF8730&gt;失眠不寐&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#BD69FF&gt;抑郁烦闷&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF57A0&gt;暴躁易怒&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#2E89FF&gt;头疼欲裂&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF8730&gt;头晕目眩&lt;/color&gt;或者&lt;color=#BD69FF&gt;听力下降&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#BD69FF&gt;心悸体虚&lt;/color&gt;或者&lt;color=#FF57A0&gt;盗汗口干&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF57A0&gt;咽肿喉痛&lt;/color&gt;或者&lt;color=#2E89FF&gt;口苦嘴臭&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#2E89FF&gt;风寒流涕&lt;/color&gt;或者&lt;color=#FF8730&gt;四肢无力&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF8730&gt;四肢无力&lt;/color&gt;或者&lt;color=#BD69FF&gt;抑郁烦闷&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#BD69FF&gt;听力下降&lt;/color&gt;或者&lt;color=#FF57A0&gt;暴躁易怒&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF57A0&gt;盗汗口干&lt;/color&gt;或者&lt;color=#2E89FF&gt;头疼欲裂&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#2E89FF&gt;口苦嘴臭&lt;/color&gt;或者&lt;color=#FF8730&gt;失眠不寐&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF8730&gt;失眠不寐&lt;/color&gt;或者&lt;color=#BD69FF&gt;心悸体虚&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#BD69FF&gt;抑郁烦闷&lt;/color&gt;或者&lt;color=#FF57A0&gt;咽肿喉痛&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF57A0&gt;暴躁易怒&lt;/color&gt;或者&lt;color=#2E89FF&gt;风寒流涕&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#2E89FF&gt;头疼欲裂&lt;/color&gt;或者&lt;color=#FF8730&gt;头晕目眩&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF8730&gt;头晕目眩&lt;/color&gt;或者&lt;color=#FF57A0&gt;暴躁易怒&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#BD69FF&gt;心悸体虚&lt;/color&gt;或者&lt;color=#2E89FF&gt;头疼欲裂&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF57A0&gt;咽肿喉痛&lt;/color&gt;或者&lt;color=#FF8730&gt;失眠不寐&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#2E89FF&gt;风寒流涕&lt;/color&gt;或者&lt;color=#BD69FF&gt;抑郁烦闷&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF8730&gt;四肢无力&lt;/color&gt;或者&lt;color=#FF57A0&gt;咽肿喉痛&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#BD69FF&gt;听力下降&lt;/color&gt;或者&lt;color=#2E89FF&gt;风寒流涕&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF57A0&gt;盗汗口干&lt;/color&gt;或者&lt;color=#FF8730&gt;头晕目眩&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#2E89FF&gt;口苦嘴臭&lt;/color&gt;或者&lt;color=#BD69FF&gt;心悸体虚&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF8730&gt;失眠不寐&lt;/color&gt;或者&lt;color=#FF57A0&gt;盗汗口干&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#BD69FF&gt;抑郁烦闷&lt;/color&gt;或者&lt;color=#2E89FF&gt;口苦嘴臭&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF57A0&gt;暴躁易怒&lt;/color&gt;或者&lt;color=#FF8730&gt;四肢无力&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#2E89FF&gt;头疼欲裂&lt;/color&gt;或者&lt;color=#BD69FF&gt;听力下降&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF8730&gt;头晕目眩&lt;/color&gt;或者&lt;color=#2E89FF&gt;风寒流涕&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#BD69FF&gt;心悸体虚&lt;/color&gt;或者&lt;color=#FF8730&gt;头晕目眩&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF57A0&gt;咽肿喉痛&lt;/color&gt;或者&lt;color=#BD69FF&gt;心悸体虚&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#2E89FF&gt;风寒流涕&lt;/color&gt;或者&lt;color=#FF57A0&gt;咽肿喉痛&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF8730&gt;四肢无力&lt;/color&gt;或者&lt;color=#2E89FF&gt;口苦嘴臭&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#BD69FF&gt;听力下降&lt;/color&gt;或者&lt;color=#FF8730&gt;四肢无力&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF57A0&gt;盗汗口干&lt;/color&gt;或者&lt;color=#BD69FF&gt;听力下降&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#2E89FF&gt;口苦嘴臭&lt;/color&gt;或者&lt;color=#FF57A0&gt;盗汗口干&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF8730&gt;失眠不寐&lt;/color&gt;或者&lt;color=#2E89FF&gt;头疼欲裂&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#BD69FF&gt;抑郁烦闷&lt;/color&gt;或者&lt;color=#FF8730&gt;失眠不寐&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#FF57A0&gt;暴躁易怒&lt;/color&gt;或者&lt;color=#BD69FF&gt;抑郁烦闷&lt;/color&gt;，不然可得耽误事儿了</t>
+  </si>
+  <si>
+    <t>但千万别让我&lt;color=#2E89FF&gt;头疼欲裂&lt;/color&gt;或者&lt;color=#FF57A0&gt;暴躁易怒&lt;/color&gt;，不然可得耽误事儿了</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
